--- a/data/conversion_summary.xlsx
+++ b/data/conversion_summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,494 +473,1145 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>프라임관101,수용인원 0036명,김종의강의실(PBL강의실)_converted.xlsx</t>
+          <t>과학관107,수용인원 0075명,강의실_converted.xlsx</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>프라임관</t>
+          <t>과학관</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>107</t>
         </is>
       </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="F2" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>data\프라임관101,수용인원 0036명,김종의강의실(PBL강의실)_converted.xlsx</t>
+          <t>data\과학관107,수용인원 0075명,강의실_converted.xlsx</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>프라임관102,수용인원 0036명,이영자강의실(PBL강의실)_converted.xlsx</t>
+          <t>과학관108,수용인원 0072명,강의실_converted.xlsx</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>프라임관</t>
+          <t>과학관</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>108</t>
         </is>
       </c>
       <c r="D3" t="n">
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="F3" t="n">
         <v>12</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>data\프라임관102,수용인원 0036명,이영자강의실(PBL강의실)_converted.xlsx</t>
+          <t>data\과학관108,수용인원 0072명,강의실_converted.xlsx</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>프라임관103,수용인원 0036명,권준장군강의실(PBL강의실)_converted.xlsx</t>
+          <t>과학관109,수용인원 0072명,함시현 강의실_converted.xlsx</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>프라임관</t>
+          <t>과학관</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>109</t>
         </is>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="F4" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>data\프라임관103,수용인원 0036명,권준장군강의실(PBL강의실)_converted.xlsx</t>
+          <t>data\과학관109,수용인원 0072명,함시현 강의실_converted.xlsx</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>프라임관104,수용인원 0090명,PBL강의실_converted.xlsx</t>
+          <t>과학관110,수용인원 0070명,강의실_converted.xlsx</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>프라임관</t>
+          <t>과학관</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>110</t>
         </is>
       </c>
       <c r="D5" t="n">
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="F5" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>data\프라임관104,수용인원 0090명,PBL강의실_converted.xlsx</t>
+          <t>data\과학관110,수용인원 0070명,강의실_converted.xlsx</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>프라임관105,수용인원 0065명,영원무역강의실(PBL강의실)_converted.xlsx</t>
+          <t>르네상스401,수용인원 0042명,강의실(평면)_converted.xlsx</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>프라임관</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="F6" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>data\프라임관105,수용인원 0065명,영원무역강의실(PBL강의실)_converted.xlsx</t>
+          <t>data\르네상스401,수용인원 0042명,강의실(평면)_converted.xlsx</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>프라임관201,수용인원 0083명,조강순·권준하강의실_converted.xlsx</t>
+          <t>르네상스402,수용인원 0072명,강의실(계단 혼용)_converted.xlsx</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>프라임관</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="F7" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>data\프라임관201,수용인원 0083명,조강순·권준하강의실_converted.xlsx</t>
+          <t>data\르네상스402,수용인원 0072명,강의실(계단 혼용)_converted.xlsx</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>프라임관202,수용인원 0077명,강의실_converted.xlsx</t>
+          <t>르네상스403,수용인원 0071명,강의실(계단 혼용)_converted.xlsx</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>프라임관</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F8" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>data\프라임관202,수용인원 0077명,강의실_converted.xlsx</t>
+          <t>data\르네상스403,수용인원 0071명,강의실(계단 혼용)_converted.xlsx</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>프라임관203,수용인원 0080명,문주현강의실_converted.xlsx</t>
+          <t>르네상스404,수용인원 0107명,강의실(계단식)_converted.xlsx</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>프라임관</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="F9" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>data\프라임관203,수용인원 0080명,문주현강의실_converted.xlsx</t>
+          <t>data\르네상스404,수용인원 0107명,강의실(계단식)_converted.xlsx</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>프라임관204,수용인원 0083명,강의실_converted.xlsx</t>
+          <t>르네상스405,수용인원 0091명,강의실(계단식)_converted.xlsx</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>프라임관</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="F10" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>data\프라임관204,수용인원 0083명,강의실_converted.xlsx</t>
+          <t>data\르네상스405,수용인원 0091명,강의실(계단식)_converted.xlsx</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>프라임관205,수용인원 0010명,세미나실_converted.xlsx</t>
+          <t>르네상스406,수용인원 0070명,강의실(계단 혼용)_converted.xlsx</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>프라임관</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F11" t="n">
-        <v>11.5</v>
+        <v>11.8</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>data\프라임관205,수용인원 0010명,세미나실_converted.xlsx</t>
+          <t>data\르네상스406,수용인원 0070명,강의실(계단 혼용)_converted.xlsx</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>프라임관206,수용인원 0010명,세미나실_converted.xlsx</t>
+          <t>르네상스407,수용인원 0072명,강의실(계단 혼용)_converted.xlsx</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>프라임관</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F12" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>data\프라임관206,수용인원 0010명,세미나실_converted.xlsx</t>
+          <t>data\르네상스407,수용인원 0072명,강의실(계단 혼용)_converted.xlsx</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>프라임관301,수용인원 0070명,캡스톤디자인강의실(안유현강의실)_converted.xlsx</t>
+          <t>르네상스408,수용인원 0010명,공용 세미나실_converted.xlsx</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>프라임관</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="F13" t="n">
-        <v>12.1</v>
+        <v>11</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>data\프라임관301,수용인원 0070명,캡스톤디자인강의실(안유현강의실)_converted.xlsx</t>
+          <t>data\르네상스408,수용인원 0010명,공용 세미나실_converted.xlsx</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>프라임관302,수용인원 0070명,캡스톤디자인강의실_converted.xlsx</t>
+          <t>르네상스B209A,수용인원 0010명,세미나실_converted.xlsx</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>프라임관</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="F14" t="n">
-        <v>12</v>
+        <v>11.1</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>data\프라임관302,수용인원 0070명,캡스톤디자인강의실_converted.xlsx</t>
+          <t>data\르네상스B209A,수용인원 0010명,세미나실_converted.xlsx</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>프라임관303,수용인원 0054명,캡스톤디자인강의실_converted.xlsx</t>
+          <t>미래창조관101,수용인원 0201명,강의실(계단식)_converted.xlsx</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>프라임관</t>
+          <t>미래창조관</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>101</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>54</v>
+        <v>201</v>
       </c>
       <c r="F15" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>data\프라임관303,수용인원 0054명,캡스톤디자인강의실_converted.xlsx</t>
+          <t>data\미래창조관101,수용인원 0201명,강의실(계단식)_converted.xlsx</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>프라임관304,수용인원 0042명,김종희강의실(캡스톤디자인)_converted.xlsx</t>
+          <t>미래창조관201,수용인원 0058명,강의실_converted.xlsx</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>프라임관</t>
+          <t>미래창조관</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>201</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E16" t="n">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="F16" t="n">
         <v>12</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>data\프라임관304,수용인원 0042명,김종희강의실(캡스톤디자인)_converted.xlsx</t>
+          <t>data\미래창조관201,수용인원 0058명,강의실_converted.xlsx</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>미래창조관202,수용인원 0085명,강의실_converted.xlsx</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>미래창조관</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>2</v>
+      </c>
+      <c r="E17" t="n">
+        <v>85</v>
+      </c>
+      <c r="F17" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>data\미래창조관202,수용인원 0085명,강의실_converted.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>미래창조관203,수용인원 0075명,강의실_converted.xlsx</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>미래창조관</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>203</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>2</v>
+      </c>
+      <c r="E18" t="n">
+        <v>75</v>
+      </c>
+      <c r="F18" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>data\미래창조관203,수용인원 0075명,강의실_converted.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>미래창조관204,수용인원 0068명,강의실_converted.xlsx</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>미래창조관</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>2</v>
+      </c>
+      <c r="E19" t="n">
+        <v>68</v>
+      </c>
+      <c r="F19" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>data\미래창조관204,수용인원 0068명,강의실_converted.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>미술대304,수용인원 0070명,강의실_converted.xlsx</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>70</v>
+      </c>
+      <c r="F20" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>data\미술대304,수용인원 0070명,강의실_converted.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>미술대305,수용인원 0065명,김현화강의실_converted.xlsx</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>65</v>
+      </c>
+      <c r="F21" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>data\미술대305,수용인원 0065명,김현화강의실_converted.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>백주년505,수용인원 0060명,장봉애강의실_converted.xlsx</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>60</v>
+      </c>
+      <c r="F22" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>data\백주년505,수용인원 0060명,장봉애강의실_converted.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>프라임관101,수용인원 0036명,김종의강의실(PBL강의실)_converted.xlsx</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>프라임관</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" t="n">
+        <v>36</v>
+      </c>
+      <c r="F23" t="n">
+        <v>12</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>data\프라임관101,수용인원 0036명,김종의강의실(PBL강의실)_converted.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>프라임관102,수용인원 0036명,이영자강의실(PBL강의실)_converted.xlsx</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>프라임관</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" t="n">
+        <v>36</v>
+      </c>
+      <c r="F24" t="n">
+        <v>12</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>data\프라임관102,수용인원 0036명,이영자강의실(PBL강의실)_converted.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>프라임관103,수용인원 0036명,권준장군강의실(PBL강의실)_converted.xlsx</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>프라임관</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" t="n">
+        <v>36</v>
+      </c>
+      <c r="F25" t="n">
+        <v>12</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>data\프라임관103,수용인원 0036명,권준장군강의실(PBL강의실)_converted.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>프라임관104,수용인원 0090명,PBL강의실_converted.xlsx</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>프라임관</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" t="n">
+        <v>90</v>
+      </c>
+      <c r="F26" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>data\프라임관104,수용인원 0090명,PBL강의실_converted.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>프라임관105,수용인원 0065명,영원무역강의실(PBL강의실)_converted.xlsx</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>프라임관</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" t="n">
+        <v>65</v>
+      </c>
+      <c r="F27" t="n">
+        <v>12</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>data\프라임관105,수용인원 0065명,영원무역강의실(PBL강의실)_converted.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>프라임관201,수용인원 0083명,조강순·권준하강의실_converted.xlsx</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>프라임관</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>2</v>
+      </c>
+      <c r="E28" t="n">
+        <v>83</v>
+      </c>
+      <c r="F28" t="n">
+        <v>12</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>data\프라임관201,수용인원 0083명,조강순·권준하강의실_converted.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>프라임관202,수용인원 0077명,강의실_converted.xlsx</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>프라임관</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>2</v>
+      </c>
+      <c r="E29" t="n">
+        <v>77</v>
+      </c>
+      <c r="F29" t="n">
+        <v>12</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>data\프라임관202,수용인원 0077명,강의실_converted.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>프라임관203,수용인원 0080명,문주현강의실_converted.xlsx</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>프라임관</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>203</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>2</v>
+      </c>
+      <c r="E30" t="n">
+        <v>80</v>
+      </c>
+      <c r="F30" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>data\프라임관203,수용인원 0080명,문주현강의실_converted.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>프라임관204,수용인원 0083명,강의실_converted.xlsx</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>프라임관</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>2</v>
+      </c>
+      <c r="E31" t="n">
+        <v>83</v>
+      </c>
+      <c r="F31" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>data\프라임관204,수용인원 0083명,강의실_converted.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>프라임관205,수용인원 0010명,세미나실_converted.xlsx</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>프라임관</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>205</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>2</v>
+      </c>
+      <c r="E32" t="n">
+        <v>10</v>
+      </c>
+      <c r="F32" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>data\프라임관205,수용인원 0010명,세미나실_converted.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>프라임관206,수용인원 0010명,세미나실_converted.xlsx</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>프라임관</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>2</v>
+      </c>
+      <c r="E33" t="n">
+        <v>10</v>
+      </c>
+      <c r="F33" t="n">
+        <v>12</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>data\프라임관206,수용인원 0010명,세미나실_converted.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>프라임관301,수용인원 0070명,캡스톤디자인강의실(안유현강의실)_converted.xlsx</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>프라임관</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>301</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>3</v>
+      </c>
+      <c r="E34" t="n">
+        <v>70</v>
+      </c>
+      <c r="F34" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>data\프라임관301,수용인원 0070명,캡스톤디자인강의실(안유현강의실)_converted.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>프라임관302,수용인원 0070명,캡스톤디자인강의실_converted.xlsx</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>프라임관</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>302</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>3</v>
+      </c>
+      <c r="E35" t="n">
+        <v>70</v>
+      </c>
+      <c r="F35" t="n">
+        <v>12</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>data\프라임관302,수용인원 0070명,캡스톤디자인강의실_converted.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>프라임관303,수용인원 0054명,캡스톤디자인강의실_converted.xlsx</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>프라임관</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>303</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>3</v>
+      </c>
+      <c r="E36" t="n">
+        <v>54</v>
+      </c>
+      <c r="F36" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>data\프라임관303,수용인원 0054명,캡스톤디자인강의실_converted.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>프라임관304,수용인원 0042명,김종희강의실(캡스톤디자인)_converted.xlsx</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>프라임관</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>304</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>3</v>
+      </c>
+      <c r="E37" t="n">
+        <v>42</v>
+      </c>
+      <c r="F37" t="n">
+        <v>12</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>data\프라임관304,수용인원 0042명,김종희강의실(캡스톤디자인)_converted.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
           <t>프라임관306,수용인원 0010명,세미나실_converted.xlsx</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B38" t="inlineStr">
         <is>
           <t>프라임관</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>306</t>
         </is>
       </c>
-      <c r="D17" t="n">
+      <c r="D38" t="n">
         <v>3</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E38" t="n">
         <v>10</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F38" t="n">
         <v>12</v>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>data\프라임관306,수용인원 0010명,세미나실_converted.xlsx</t>
         </is>
